--- a/raw data/AZ-small-mammals (1).xlsx
+++ b/raw data/AZ-small-mammals (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/rlr65250_uga_edu/Documents/ECOL-4130L/In-Class Exercises/Week 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allisonbelkeir/Documents/GitHub/github-practice/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_84A133F2F505229D72BAA3C032A2E38E6E27A26C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CB34C7-5D47-4F16-9101-E8C87F000D93}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7403FA25-DC67-2D4E-9573-8F2F9B38535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="14020" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,9 +353,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,7 +745,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -791,7 +789,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -816,31 +814,31 @@
   <dimension ref="C3:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="24.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1"/>
-    <col min="3" max="3" width="26.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1"/>
+    <col min="3" max="3" width="26.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" customWidth="1"/>
-    <col min="16" max="16" width="52.88671875" customWidth="1"/>
+    <col min="13" max="13" width="24.83203125" customWidth="1"/>
+    <col min="16" max="16" width="52.83203125" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="20" width="11.44140625" style="1"/>
-    <col min="21" max="21" width="19.88671875" style="1" customWidth="1"/>
-    <col min="22" max="25" width="11.44140625" style="1"/>
-    <col min="26" max="26" width="17.44140625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.44140625" style="1"/>
+    <col min="18" max="20" width="11.5" style="1"/>
+    <col min="21" max="21" width="19.83203125" style="1" customWidth="1"/>
+    <col min="22" max="25" width="11.5" style="1"/>
+    <col min="26" max="26" width="17.5" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" ht="78.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:17" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
@@ -859,7 +857,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -876,7 +874,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -893,7 +891,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
@@ -916,7 +914,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
@@ -957,12 +955,12 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C8" s="17">
         <v>41471</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>8</v>
@@ -996,7 +994,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C9" s="17">
         <v>41471</v>
       </c>
@@ -1037,7 +1035,7 @@
       </c>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C10" s="17">
         <v>41471</v>
       </c>
@@ -1076,7 +1074,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C11" s="17">
         <v>41471</v>
       </c>
@@ -1115,7 +1113,7 @@
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C12" s="17">
         <v>41473</v>
       </c>
@@ -1156,7 +1154,7 @@
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C13" s="17">
         <v>41473</v>
       </c>
@@ -1197,7 +1195,7 @@
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C14" s="17">
         <v>41473</v>
       </c>
@@ -1238,7 +1236,7 @@
       </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C15" s="17">
         <v>41473</v>
       </c>
@@ -1279,7 +1277,7 @@
       </c>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C16" s="17">
         <v>41473</v>
       </c>
@@ -1320,7 +1318,7 @@
       </c>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C17" s="17">
         <v>41473</v>
       </c>
@@ -1361,7 +1359,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C18" s="17">
         <v>41473</v>
       </c>
@@ -1402,7 +1400,7 @@
       </c>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C19" s="17">
         <v>41473</v>
       </c>
@@ -1435,7 +1433,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C20" s="17">
         <v>41473</v>
       </c>
@@ -1460,7 +1458,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C21" s="18">
         <v>41473</v>
       </c>
@@ -1485,7 +1483,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1502,7 +1500,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1519,7 +1517,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1536,7 +1534,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1553,7 +1551,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1570,7 +1568,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1587,7 +1585,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.3">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1623,25 +1621,25 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="24.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11.44140625" style="1"/>
-    <col min="8" max="8" width="22.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="22.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="11.5" style="1"/>
+    <col min="13" max="13" width="22.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" ht="69" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="3:16" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1663,7 +1661,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
@@ -1701,7 +1699,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C8" s="6">
         <v>41648</v>
       </c>
@@ -1735,7 +1733,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C9" s="6">
         <v>41648</v>
       </c>
@@ -1773,7 +1771,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C10" s="6">
         <v>41648</v>
       </c>
@@ -1811,7 +1809,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C11" s="6">
         <v>41659</v>
       </c>
@@ -1845,7 +1843,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C12" s="6">
         <v>41659</v>
       </c>
@@ -1883,7 +1881,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C13" s="6">
         <v>41659</v>
       </c>
@@ -1921,7 +1919,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C14" s="6">
         <v>41711</v>
       </c>
@@ -1959,7 +1957,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
         <v>41711</v>
       </c>
@@ -1995,7 +1993,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C16" s="6">
         <v>41711</v>
       </c>
@@ -2029,7 +2027,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2059,7 +2057,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2089,7 +2087,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2119,7 +2117,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2149,7 +2147,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2169,7 +2167,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2193,7 +2191,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2213,7 +2211,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2237,7 +2235,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="25" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2261,7 +2259,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="26" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2285,7 +2283,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="27" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2301,7 +2299,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2317,7 +2315,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2333,7 +2331,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="30" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2349,10 +2347,9 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="3:16" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+    <row r="31" spans="3:16" ht="31" x14ac:dyDescent="0.35">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
@@ -2367,10 +2364,10 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+    <row r="32" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2383,10 +2380,10 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C33" s="23"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+    <row r="33" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C33" s="21"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2399,10 +2396,10 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C34" s="23"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+    <row r="34" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C34" s="21"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2415,10 +2412,10 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C35" s="23"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+    <row r="35" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C35" s="21"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2431,10 +2428,10 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C36" s="23"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+    <row r="36" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C36" s="21"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2447,10 +2444,10 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C37" s="23"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+    <row r="37" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C37" s="21"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2463,10 +2460,10 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C38" s="23"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+    <row r="38" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C38" s="21"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2479,10 +2476,10 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C39" s="23"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+    <row r="39" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C39" s="21"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2495,10 +2492,10 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C40" s="23"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+    <row r="40" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C40" s="21"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2511,10 +2508,10 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C41" s="23"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+    <row r="41" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C41" s="21"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2527,10 +2524,10 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="3:16" ht="30" x14ac:dyDescent="0.5">
-      <c r="C42" s="23"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
+    <row r="42" spans="3:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C42" s="21"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2543,7 +2540,7 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="43" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2559,7 +2556,7 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="44" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2575,7 +2572,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="45" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2591,7 +2588,7 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="46" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2605,7 +2602,7 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="3:16" ht="30" x14ac:dyDescent="0.5">
+    <row r="47" spans="3:16" ht="30" x14ac:dyDescent="0.3">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2633,6 +2630,68 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LMS_Mappings xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <Math_Settings xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <Members xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Has_Leaders_Only_SectionGroup xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <Owner xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Distribution_Groups xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <Invited_Members xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <Leaders xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Templates xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <AppVersion xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <CultureName xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <TeamsChannelId xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <Invited_Leaders xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <Member_Groups xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <NotebookType xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+    <FolderType xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100654CAF8486C9E84495C47CB17428612F" ma:contentTypeVersion="36" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d218fca90878da09470f9d9c6913f761">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="24a4780b-b9b8-490f-9267-7801a440b1c2" xmlns:ns4="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62b2a6bbd8efe47c1646205a6fed2971" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3066,69 +3125,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767A7D8A-95D9-4E2D-BEFA-7E8C8CDA6DEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LMS_Mappings xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <Math_Settings xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <Members xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Has_Leaders_Only_SectionGroup xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <Owner xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Distribution_Groups xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <Invited_Members xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <Leaders xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Templates xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <AppVersion xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <CultureName xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <TeamsChannelId xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <Invited_Leaders xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <Member_Groups xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <NotebookType xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-    <FolderType xmlns="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C5F2C4-0A6B-44EC-AEDD-8E1A2D1AB793}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1527BA2A-FC80-430D-9064-2146438FCEBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3146,23 +3162,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C5F2C4-0A6B-44EC-AEDD-8E1A2D1AB793}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767A7D8A-95D9-4E2D-BEFA-7E8C8CDA6DEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6b544d46-9b2a-4003-bc91-8ec45b0e4a0d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>